--- a/ROI MP50 General Questionnaire.xlsx
+++ b/ROI MP50 General Questionnaire.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhlhe\Documents\MP50 Blogs\Blog 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B91CF7-BE0D-42F9-A5F4-5636B2CDAFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F23371-9D8E-491A-B7E4-953868FA8CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746"/>
+    <workbookView xWindow="36840" yWindow="5000" windowWidth="23420" windowHeight="15130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROI MP50" sheetId="2" r:id="rId1"/>
-    <sheet name="Reserve Copy Org" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -120,9 +119,6 @@
     <t>ROI in time (EUR/EUR)</t>
   </si>
   <si>
-    <t>ROI Calculations</t>
-  </si>
-  <si>
     <t>appointments/year</t>
   </si>
   <si>
@@ -172,19 +168,25 @@
   </si>
   <si>
     <t>ROI Calculations Patient Dossier Model MP50</t>
+  </si>
+  <si>
+    <t>Change Numbers to view effects</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot; &quot;#,##0&quot; &quot;;&quot; -&quot;#,##0&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0.0&quot; &quot;;&quot; -&quot;#,##0.0&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="166" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; -&quot;#,##0.00&quot; &quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,8 +240,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +296,20 @@
         <bgColor rgb="FFD6DCE4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -312,6 +332,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -319,7 +354,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -340,8 +375,12 @@
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3" customBuiltin="1"/>
@@ -373,7 +412,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1566863</xdr:colOff>
+      <xdr:colOff>1574776</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>171448</xdr:rowOff>
     </xdr:to>
@@ -405,61 +444,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9996488" y="503891"/>
-          <a:ext cx="2552700" cy="1453495"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>37166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8BC25C-104E-4446-BB14-EEBF7E60F99F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6777038" y="580091"/>
           <a:ext cx="2552700" cy="1453495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -768,11 +752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -816,8 +800,8 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="19" t="s">
-        <v>45</v>
+      <c r="H2" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -941,7 +925,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -985,12 +969,16 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1029,7 +1017,7 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1052,7 +1040,7 @@
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1075,7 +1063,7 @@
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1132,10 +1120,12 @@
       <c r="G16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="21">
         <v>7</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1165,7 +1155,7 @@
         <v>500000000</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1197,7 +1187,7 @@
         <v>3500000000</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1251,7 +1241,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
@@ -1276,9 +1266,11 @@
       <c r="E21" s="16">
         <v>4.3</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="G21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="8">
         <f>H18*E22/60</f>
@@ -1308,7 +1300,9 @@
       <c r="E22" s="16">
         <v>4.7</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="G22" s="17" t="s">
         <v>13</v>
       </c>
@@ -1367,16 +1361,16 @@
       </c>
       <c r="E24" s="1">
         <f>((E26+E27)-E25)/(E25)</f>
-        <v>0.88048611111111119</v>
+        <v>0.88310152990264246</v>
       </c>
       <c r="F24" s="13">
         <f>E24</f>
-        <v>0.88048611111111119</v>
+        <v>0.88310152990264246</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="8"/>
       <c r="I24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -1396,14 +1390,15 @@
       <c r="D25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="6">
-        <v>24</v>
+      <c r="E25" s="19">
+        <f>((H16*44/24)*2)-1.7</f>
+        <v>23.966666666666669</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="6"/>
@@ -1440,7 +1435,7 @@
         <v>5000000000</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1475,7 +1470,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1529,14 +1524,14 @@
         <v>25</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="11">
         <f>H26/H28/80</f>
         <v>34722.222222222226</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1559,7 +1554,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1580,12 +1575,12 @@
         <v>28</v>
       </c>
       <c r="E31" s="1">
-        <f>(44*110+1*22.5-1*22.5 )/(24*22.5)</f>
-        <v>8.9629629629629637</v>
+        <f>(E26*110+1*22.5-1*22.5 )/(E25*22.5)</f>
+        <v>9.0600834492350479</v>
       </c>
       <c r="F31" s="13">
         <f>E31</f>
-        <v>8.9629629629629637</v>
+        <v>9.0600834492350479</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>26</v>
@@ -3079,482 +3074,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1"/>
-    <hyperlink ref="G17" r:id="rId2"/>
-    <hyperlink ref="G22" r:id="rId3"/>
-    <hyperlink ref="D29" r:id="rId4"/>
-    <hyperlink ref="H2" r:id="rId5"/>
+    <hyperlink ref="G16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D29" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
   <drawing r:id="rId7"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:K30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" width="41.19921875" customWidth="1"/>
-    <col min="4" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="3:11" ht="40.9" x14ac:dyDescent="1.2">
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>838</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8">
-        <v>7</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
-        <v>578</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="8">
-        <v>500000000</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6">
-        <v>503</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="8">
-        <f>G15*G16</f>
-        <v>3500000000</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6">
-        <v>74</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6">
-        <v>416</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="16">
-        <v>4.3</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="8">
-        <f>G17*D21/60</f>
-        <v>274166666.66666669</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="16">
-        <v>4.7</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="8">
-        <f>52*40</f>
-        <v>2080</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="11">
-        <f>G20/G21</f>
-        <v>131810.89743589744</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="3:11" ht="21" x14ac:dyDescent="0.65">
-      <c r="C23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1">
-        <f>((D25+D26)-D24)/(D24)</f>
-        <v>0.88048611111111119</v>
-      </c>
-      <c r="E23" s="13">
-        <f>D23</f>
-        <v>0.88048611111111119</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6">
-        <v>24</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="14">
-        <f>G20*D28/G16</f>
-        <v>44.414999999999999</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="8">
-        <f>G16*10</f>
-        <v>5000000000</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="14">
-        <f>G26</f>
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="15">
-        <f>G25*D20/60/G16</f>
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1800</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="6">
-        <v>81</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="11">
-        <f>G25/G27/80</f>
-        <v>34722.222222222226</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" ht="21" x14ac:dyDescent="0.65">
-      <c r="C30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1">
-        <f>(44*110+1*22.5-1*22.5 )/(24*22.5)</f>
-        <v>8.9629629629629637</v>
-      </c>
-      <c r="E30" s="13">
-        <f>D30</f>
-        <v>8.9629629629629637</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1"/>
-    <hyperlink ref="F16" r:id="rId2"/>
-    <hyperlink ref="F21" r:id="rId3"/>
-    <hyperlink ref="C28" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
-</worksheet>
 </file>